--- a/Datasett/Avfallspunkter.xlsx
+++ b/Datasett/Avfallspunkter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C7361-F890-454B-857C-7F91484027B9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE39D58-7174-4D1B-842F-F69B373958AE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <t>kind</t>
   </si>
@@ -196,9 +196,6 @@
     <t>5.981664</t>
   </si>
   <si>
-    <t>X FV286 / Nevland</t>
-  </si>
-  <si>
     <t>Likker i krysset ved FV286 og veien opp til Nevland</t>
   </si>
   <si>
@@ -290,6 +287,12 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Giljastølen Camping</t>
+  </si>
+  <si>
+    <t>Nevland</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1136,13 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1167,10 +1173,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
         <v>88</v>
-      </c>
-      <c r="K1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1242,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1509,13 +1515,13 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
       </c>
       <c r="H13">
         <v>4330</v>
@@ -1524,10 +1530,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" t="s">
         <v>61</v>
-      </c>
-      <c r="K13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1541,13 +1547,13 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
       </c>
       <c r="H14">
         <v>4335</v>
@@ -1556,10 +1562,10 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
         <v>66</v>
-      </c>
-      <c r="K14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1576,10 +1582,10 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
         <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
       </c>
       <c r="H15">
         <v>4335</v>
@@ -1588,10 +1594,10 @@
         <v>13</v>
       </c>
       <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" t="s">
         <v>70</v>
-      </c>
-      <c r="K15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1605,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16">
         <v>4335</v>
@@ -1620,10 +1626,10 @@
         <v>13</v>
       </c>
       <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
         <v>74</v>
-      </c>
-      <c r="K16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1637,13 +1643,13 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17">
         <v>4335</v>
@@ -1652,10 +1658,10 @@
         <v>13</v>
       </c>
       <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
         <v>78</v>
-      </c>
-      <c r="K17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1669,13 +1675,13 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
         <v>80</v>
       </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18">
         <v>4335</v>
@@ -1684,10 +1690,10 @@
         <v>13</v>
       </c>
       <c r="J18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s">
         <v>82</v>
-      </c>
-      <c r="K18" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1701,13 +1707,13 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
         <v>84</v>
       </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19">
         <v>4335</v>
@@ -1716,10 +1722,10 @@
         <v>13</v>
       </c>
       <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s">
         <v>86</v>
-      </c>
-      <c r="K19" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Datasett/Avfallspunkter.xlsx
+++ b/Datasett/Avfallspunkter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE39D58-7174-4D1B-842F-F69B373958AE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD56D5E-6C0C-43A0-A4DF-41A89547A98D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>kind</t>
   </si>
@@ -55,9 +55,6 @@
     <t>hyttepunkt</t>
   </si>
   <si>
-    <t>Giljabakkene</t>
-  </si>
-  <si>
     <t>Denne ligge midt i en sving. 3 sving fra Gilja sentrum</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>6.333236</t>
   </si>
   <si>
-    <t>Giljastølen</t>
-  </si>
-  <si>
     <t>Giljastølen Campingplass</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>6.288612</t>
   </si>
   <si>
-    <t>Frafjord</t>
-  </si>
-  <si>
     <t>Ved Engelskhuset</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>6.379386</t>
   </si>
   <si>
-    <t>Grovika</t>
-  </si>
-  <si>
     <t>Ligger ved lagerbygget til Gjesdal kommune</t>
   </si>
   <si>
@@ -196,9 +184,6 @@
     <t>5.981664</t>
   </si>
   <si>
-    <t>Likker i krysset ved FV286 og veien opp til Nevland</t>
-  </si>
-  <si>
     <t>FV286</t>
   </si>
   <si>
@@ -292,7 +277,25 @@
     <t>Giljastølen Camping</t>
   </si>
   <si>
-    <t>Nevland</t>
+    <t>Giljastølen Parkering</t>
+  </si>
+  <si>
+    <t>Frafjord - Engelskhuset</t>
+  </si>
+  <si>
+    <t>Grovika - lagerbygget</t>
+  </si>
+  <si>
+    <t>Ligger i krysset ved FV286 og veien opp til Nevland</t>
+  </si>
+  <si>
+    <t>Nevland ved FV286</t>
+  </si>
+  <si>
+    <t>Giljastølen ved FV281</t>
+  </si>
+  <si>
+    <t>Giljabakkene - sving</t>
   </si>
 </sst>
 </file>
@@ -1136,12 +1139,13 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1173,10 +1177,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1190,22 +1194,22 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>4335</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1219,22 +1223,22 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>4335</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1248,22 +1252,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>4335</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1277,22 +1281,22 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>4335</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1306,22 +1310,22 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>4335</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1335,22 +1339,22 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>4335</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1364,22 +1368,22 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>4335</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1393,22 +1397,22 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>4335</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1422,22 +1426,22 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>4335</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1451,25 +1455,25 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>4330</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1483,25 +1487,25 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <v>4330</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1515,25 +1519,25 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H13">
         <v>4330</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1547,25 +1551,25 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H14">
         <v>4335</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,25 +1583,25 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>4335</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1611,25 +1615,25 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>4335</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1643,25 +1647,25 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H17">
         <v>4335</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1675,25 +1679,25 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H18">
         <v>4335</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1707,25 +1711,25 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H19">
         <v>4335</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
